--- a/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,94</t>
+          <t>-0,16; 4,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,27</t>
+          <t>1,96; 8,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,63</t>
+          <t>4,49; 11,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,94</t>
+          <t>3,26; 11,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 62,31</t>
+          <t>-1,44; 64,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 69,36</t>
+          <t>12,78; 71,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,15; 98,06</t>
+          <t>29,16; 101,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,96; 68,35</t>
+          <t>15,54; 70,02</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,69</t>
+          <t>1,6; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,35</t>
+          <t>2,76; 6,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,81</t>
+          <t>1,39; 4,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,51</t>
+          <t>0,04; 4,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,24; 174,95</t>
+          <t>37,16; 164,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,89; 114,47</t>
+          <t>38,36; 117,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,65; 96,57</t>
+          <t>19,74; 93,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 53,23</t>
+          <t>1,12; 51,8</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,21</t>
+          <t>1,51; 7,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 5,98</t>
+          <t>-0,59; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,69</t>
+          <t>-3,72; 1,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,27</t>
+          <t>-4,02; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,16; 445,86</t>
+          <t>27,8; 431,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 254,84</t>
+          <t>-18,62; 248,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 43,52</t>
+          <t>-54,79; 46,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 34,76</t>
+          <t>-38,91; 33,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,74</t>
+          <t>2,14; 4,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,8</t>
+          <t>3,73; 6,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,66</t>
+          <t>2,9; 5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,94</t>
+          <t>1,48; 4,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,41</t>
+          <t>36,65; 104,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,87; 92,72</t>
+          <t>42,28; 91,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,28; 82,91</t>
+          <t>36,13; 89,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 48,76</t>
+          <t>12,86; 50,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,95</t>
+          <t>0,14; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,43</t>
+          <t>1,85; 8,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,61</t>
+          <t>4,39; 11,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 64,42</t>
+          <t>0,73; 62,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,78; 71,24</t>
+          <t>11,46; 67,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,16; 101,84</t>
+          <t>29,56; 102,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,62</t>
+          <t>1,59; 4,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,43</t>
+          <t>2,63; 6,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,77</t>
+          <t>1,32; 4,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,16; 164,9</t>
+          <t>38,47; 168,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,36; 117,71</t>
+          <t>37,89; 116,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,74; 93,85</t>
+          <t>17,24; 91,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,18</t>
+          <t>1,72; 7,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,83</t>
+          <t>-0,39; 5,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,7</t>
+          <t>-3,86; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,8; 431,83</t>
+          <t>36,41; 405,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 248,71</t>
+          <t>-15,96; 234,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 46,11</t>
+          <t>-53,1; 41,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,79</t>
+          <t>2,22; 4,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,71</t>
+          <t>3,67; 6,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,95</t>
+          <t>2,82; 5,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,65; 104,1</t>
+          <t>38,26; 99,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,28; 91,62</t>
+          <t>41,52; 90,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,13; 89,83</t>
+          <t>34,58; 85,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,91</t>
+          <t>-0,19; 4,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 8,11</t>
+          <t>1,99; 8,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 11,68</t>
+          <t>4,29; 11,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,43</t>
+          <t>2,75; 10,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 62,02</t>
+          <t>-2,03; 62,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 67,03</t>
+          <t>13,13; 69,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,56; 102,63</t>
+          <t>26,15; 98,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 70,02</t>
+          <t>12,96; 68,35</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,59</t>
+          <t>1,64; 4,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,4</t>
+          <t>2,66; 6,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,73</t>
+          <t>1,36; 4,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,41</t>
+          <t>0,19; 4,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,47; 168,82</t>
+          <t>38,24; 174,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,89; 116,95</t>
+          <t>36,89; 114,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 91,33</t>
+          <t>20,65; 96,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 51,8</t>
+          <t>2,0; 53,23</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,1</t>
+          <t>1,49; 7,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 5,81</t>
+          <t>-0,58; 5,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,59</t>
+          <t>-3,6; 1,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,23</t>
+          <t>-3,95; 2,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,41; 405,34</t>
+          <t>37,16; 445,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 234,28</t>
+          <t>-17,67; 254,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 41,53</t>
+          <t>-53,33; 43,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 33,25</t>
+          <t>-37,87; 34,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,6</t>
+          <t>2,29; 4,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,68</t>
+          <t>3,58; 6,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,79</t>
+          <t>2,8; 5,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,96</t>
+          <t>1,41; 4,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,26; 99,97</t>
+          <t>41,28; 107,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,52; 90,27</t>
+          <t>40,87; 92,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 85,11</t>
+          <t>35,28; 82,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 50,36</t>
+          <t>11,85; 48,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>39,96%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,94</t>
+          <t>2,85; 10,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,96; 68,35</t>
+          <t>14,46; 70,49</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>28,8%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,51</t>
+          <t>-0,4; 5,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 53,23</t>
+          <t>-3,69; 87,06</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>-13,58%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,27</t>
+          <t>-5,69; 1,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 34,76</t>
+          <t>-46,82; 27,26</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>33,03%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,94</t>
+          <t>0,47; 5,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 48,76</t>
+          <t>6,32; 64,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,94</t>
+          <t>-0,07; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,27</t>
+          <t>1,74; 8,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,63</t>
+          <t>4,33; 11,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,83</t>
+          <t>3,28; 11,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 62,31</t>
+          <t>-0,51; 63,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 69,36</t>
+          <t>10,87; 67,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,15; 98,06</t>
+          <t>27,62; 99,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,46; 70,49</t>
+          <t>16,81; 72,08</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,69</t>
+          <t>1,67; 4,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,35</t>
+          <t>2,57; 6,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,81</t>
+          <t>1,45; 4,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,54</t>
+          <t>-0,9; 5,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,24; 174,95</t>
+          <t>38,72; 165,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,89; 114,47</t>
+          <t>36,96; 116,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,65; 96,57</t>
+          <t>23,26; 98,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 87,06</t>
+          <t>-7,31; 83,85</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,21</t>
+          <t>1,34; 6,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 5,98</t>
+          <t>-0,44; 6,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,69</t>
+          <t>-3,9; 1,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,82</t>
+          <t>-6,4; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,16; 445,86</t>
+          <t>26,84; 413,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 254,84</t>
+          <t>-12,93; 259,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 43,52</t>
+          <t>-55,37; 52,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 27,26</t>
+          <t>-48,43; 26,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,74</t>
+          <t>2,15; 4,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,8</t>
+          <t>3,58; 6,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,66</t>
+          <t>2,99; 5,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,42</t>
+          <t>0,47; 5,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,41</t>
+          <t>37,51; 103,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,87; 92,72</t>
+          <t>41,85; 90,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,28; 82,91</t>
+          <t>36,44; 85,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 64,9</t>
+          <t>6,64; 63,02</t>
         </is>
       </c>
     </row>
